--- a/cks_kcsa_kcna.xlsx
+++ b/cks_kcsa_kcna.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiwen/Documents/wysi/CKS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiwen/Documents/wysi/project-cyber-monday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3C00D0-092B-5646-AC31-50BAE13387D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29711623-AEF8-594F-8EFD-80CE2AB52710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17080" yWindow="220" windowWidth="17080" windowHeight="17800" firstSheet="3" activeTab="4" xr2:uid="{87DCA1D7-EB5D-4C4C-A7D2-7199B399E110}"/>
+    <workbookView xWindow="-17080" yWindow="220" windowWidth="17080" windowHeight="17800" activeTab="3" xr2:uid="{87DCA1D7-EB5D-4C4C-A7D2-7199B399E110}"/>
   </bookViews>
   <sheets>
     <sheet name="kk_CKS" sheetId="3" r:id="rId1"/>
-    <sheet name="kk_KCNA" sheetId="4" r:id="rId2"/>
-    <sheet name="kk_KCSA" sheetId="5" r:id="rId3"/>
+    <sheet name="kk_KCNA" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="kk_KCSA" sheetId="5" state="hidden" r:id="rId3"/>
     <sheet name="killercoda_CKS" sheetId="8" r:id="rId4"/>
     <sheet name="killer.sh_CKS" sheetId="9" r:id="rId5"/>
-    <sheet name="pluralsight_KCNA" sheetId="6" r:id="rId6"/>
-    <sheet name="freecodecamp_KCNA" sheetId="7" r:id="rId7"/>
+    <sheet name="pluralsight_KCNA" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="freecodecamp_KCNA" sheetId="7" state="hidden" r:id="rId7"/>
     <sheet name="other_resources" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,6 +543,25 @@
   </si>
   <si>
     <t>CKS exam simulator at Killer.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kubernetes.io/docs/tutorials/security/apparmor/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">docker-default # appArmor profile
+snap.lxd.lxc
+/usr/sbin/tcpdump
+spec:
+  template:
+     spec:
+       securityContext:
+         appArmorProfile:
+           localhostProfile: docker-default
+scp /root/profile node01:profile
+apparmer_parser
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,6 +620,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -648,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,6 +699,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1093,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="141" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1103,7 +1133,8 @@
     <col min="2" max="2" width="4.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="46.1640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1215,7 +1246,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="196">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -1225,8 +1256,12 @@
       <c r="D10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7">
@@ -1709,6 +1744,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="Link to killercoda at Youtube" xr:uid="{801F38EF-1198-7149-A133-DDF4B4E36FBD}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{1B375D11-4F36-F646-838B-AFBFC10B7FF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1721,8 +1757,8 @@
   </sheetPr>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2189,7 +2225,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/cks_kcsa_kcna.xlsx
+++ b/cks_kcsa_kcna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiwen/Documents/wysi/project-cyber-monday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29711623-AEF8-594F-8EFD-80CE2AB52710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BDED46-3018-F145-B1CF-14F7C142A311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17080" yWindow="220" windowWidth="17080" windowHeight="17800" activeTab="3" xr2:uid="{87DCA1D7-EB5D-4C4C-A7D2-7199B399E110}"/>
+    <workbookView xWindow="-18600" yWindow="-1460" windowWidth="18600" windowHeight="20020" xr2:uid="{87DCA1D7-EB5D-4C4C-A7D2-7199B399E110}"/>
   </bookViews>
   <sheets>
     <sheet name="kk_CKS" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="181">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,12 +564,1237 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppArmor profile
+principle of least privilege
+serviceAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secret
+base64 -d
+distribute credentials securely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manual static analysis
+security issues in config files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># do not copy secret token, use and deletion in Dockerfile, as it's still stored in a few persistent layers even if we delete it afterwards.
+# do not expose plain text password value directly in env section of a pod, utilize k8s's secrets to store passwords
+# -e argument for turning escape sequence like `\n` into newline character
+echo -e "q3_file1.Dockerfile\nq3_file2.yaml" &gt; /opt/course/security-issues.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k -n orion get po -oyaml | grep secret
+echo &lt;copy-and-paste-the-base64-encrypted-secret-here&gt; | base64 -d
+echo &lt;copy-and-paste-the-decoded-secret&gt; &gt; /root/CKS/secrets/CONNECTOR_PASSWORD
+# mount secret as volumes
+spec:
+  containers:
+    - name: test-container
+      volumeMounts:
+        - name: secret-volume
+          mountPath: /mnt/connector/password
+          readOnly: true
+  volumes:
+    - name: secret-volume
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>secret:
+        secretName:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> test-secret</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># move the json seccomp profile to /var/lib/kubelet/seccomp/profiles on the cp node
+mv /root/CKS/audit.json /var/lib/kubelet/seccomp/profiles
+# add spec.securityContext.seccompProfile.localhostProfile
+spec:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">  securityContext:
+    seccompProfile:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">      type: Localhost
+      localhostProfile: profiles/audit.json</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json Seccomp profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># load AppArmor at controlplane
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>apparmor_parser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> -q /etc/apparmor.d/frontend
+# verify the profile was successfully loaded
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>aa-status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> | grep restricted-frontend
+# you should be able to get result string `restricted-frontend` which is the profile name used by this file
+# edit pod spec.securityContext
+spec:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">  securityContext:
+    appArmorProfile:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">      type: Localhost
+      localhostProfile: restricted-frontend
+  serviceAccountName: frontend-default</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIS benchmark report
+profile=false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi /etc/kubernetes/manifests/kube-controller-manager.yaml
+vi /etc/kubernetes/manifests/kube-scheduler.yaml
+# add command parameter --profiling=false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Falco
+change log output
+write log alerts
+falco_rules.local.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPDX-Json SBOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># install bom
+git clone https://github.com/kubernetes-sigs/bom.git
+cd bom
+go build -o bom ./cmd/bom
+mv bom /usr/local/bin/
+# generate sbom and save it to the desired file
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>bom generate --image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> registry.k8s.io/kube-apiserver:v1.31.0 \
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">  --format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> json \
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> --output </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>/opt/course/sbom1.json</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission Webhook Server
+AdmissionConfiguration
+admission-control-config-file
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># create admissionConfiguration file in the cp node
+# the /root/CKS/ImagePolicy/ on cp node is mounted to the /etc/admission-controllers/ directory in kube-apiserver
+cat &lt;&lt;EOF&gt; /root/CKS/ImagePolicy/admission-configuration.yaml
+apiVersion: apiserver.config.k8s.io/v1
+kind: AdmissionConfiguration
+plugins:
+- name: ImagePolicyWebhook
+  configuration:
+    imagePolicy:
+      kubeConfigFile: /etc/admission-controllers/admission-kubeconfig.yaml  # credentials to connect to webhook server
+      allowTTL: 50
+      denyTTL: 50
+      retryBackoff: 500
+      defaultAllow: false
+# update the kube-apiserver command flags and add ImagePolicyWebhook to enable admission plugins
+spec:
+  commands:
+    ...
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>- --admission-control-config-file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">=/etc/admission-controllers/admission-configuration.yaml
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> - --enable-admission-plugins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>=NodeRestriction,ImagePolicyWebhook
+# in case of messing up, copy backup file back to the manifest directory
+cp -v /root/backup/kube-apiserver.yaml /etc/kubernetes/manifests</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkPolicy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k -n prod-x12cs get po,svc,netpol -owide --show-labels
+# checkout pod/redis-backend, service port number
+k -n prod-x12cs get netpol allow-redis-access -oyaml &gt; 2-1.yaml
+vi 2-1.yaml
+apiVersion: networking.k8s.io/v1
+kind: NetworkPolicy
+metadata:
+  name: allow-redis-access
+  namespace: prod-x12cs
+spec:
+  podSelector:
+    matchLabels:
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">run: redis-backend
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">  policyTypes:
+  - Ingress
+  ingress:
+  - from:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>- namespaceSelector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">:
+        matchLabels:
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">access: redis
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>- podSelector:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+        matchLabels:
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>backend: prod-x12cs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+    ports:
+    - protocol: TCP
+      port: 6379
+k replace --force -f 2-1.yaml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k -n team-azure get ciliumnetworkpolicy
+cat &lt;&lt;EOF&gt; deny-policy-p1.yaml
+apiVersion: "cilium.io/v2"
+kind: CiliumNetworkPolicy
+metadata:
+  name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>p1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+  namespace: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>team-azure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+spec:
+  endpointSelector:
+    matchLabels:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">      role: messenger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+  egressDeny:
+  - toEndpoints:
+    - matchLabels:
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">  role: database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+EOF
+k create -f deny-policy-p1.yaml
+# LAYER 3: 
+# communication between IP address (which source IP can send data to which destination IP)
+# the `endpointSelector` and `toEndpoints` define which pods (of certain IP address) can communicates with each other</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CiliumNetworkPolicy
+Layer 3 policy
+endpointSelector
+egressDeny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pod 
+  spec
+    automountServiceAccountToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k -n gamma edit po apps-cluster-dash
+# add field spec.automountServiceAccountToken and set to false
+# remove the serviceAccountToken field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Falco rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vi /etc/falco/falco_rules.local.yaml
+# find this rule
+/rule:.*shell 
+/desc:.*terminal
+/proc.tty
+# spawned_process and container         # a process inside a container
+# and shell_procs and proc.tty != 0     # a shell process w/ a terminal attached
+# and container_entrypoint ...
+# change output and priority
+  output: &gt;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>%evt.time.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>%user.uid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>%container.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>%container.image.repository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+  priority: ALERT
+# restart the falco service
+systemctl restart falco</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role
+user
+rolebinding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k -n dev-z edit role dev-user-access
+# change the rule to grant only get/list-pods access
+rules:
+  - apiGroups:
+    - ""
+    resources:
+    - pods
+    verbs:
+    - get
+    - list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pod security admission
+pod security standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k label ns team-red pod-security.kubernetes.io/enforce=baseline
+k -n team-red get po,rs,deploy
+k -n team-red delete po &lt;name-of-this-pod&gt;
+k -n team-red describe rs &lt;name-of-this-replicaset&gt;
+# copy the event error message, something about pod forbidden to create due to PodSecurity violation
+echo 'Warning  FailedCreate      5m17s (x9 over 16m)  replicaset-controller  (combined from similar events): Error creating: pods "hacker-f74b9f47d-jk9fn" is forbidden: violates PodSecurity "baseline:latest": hostPath volumes (volume "containerd-volume")' &gt; /opt/course/logs.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dockfile
+no curl
+version constraint
+no running process as root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kubesec scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kubesec scan /root/CKS/simple-pod.yaml
+# Remove the capabilities.add: SYS_ADMIN
+kubesec scan /root/CKS/simple-pod.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audit Policy
+audit-policy-file
+audit-log-path
+audit-log-maxage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kube-bench report
+worker node authz mode
+protectKernelDefaults</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># need to protect node kernel parameter settings, make them non-overwritable by container workloads
+vi /var/lib/kubelet/config.yaml
+authorization:
+  mode: RBAC   # formerly alwaysAllow
+protectKernelDefaults: true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audit Policy
+audit-policy-file
+audit-log-path
+audit-log-maxage"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the same as task 2-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cat &lt;&lt;EOF&gt; /etc/kubernetes/prod-audit.yaml
+apiVersion: audit.k8s.io/v1
+kind: Policy
+rules:
+- level: Metadata
+  verbs: delete
+  resources:
+  - group: ""
+    resources: ["secrets"]
+  namespaces: ["prod"]
+EOF
+vi /etc/kubernetes/manifests/kube-apiserver.yaml
+# add command flags
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--audit-policy-file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">=/etc/kubernetes/prod-audit.yaml
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--audit-log-path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">=/var/log/prod-secrets.log
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--audit-log-maxage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>=30
+# add volumes
+  - name: audit
+    hostPath:
+      path: /etc/kubernetes/prod-audit.yaml
+      type: File
+  - name: audit-log
+    hostPath:
+      path: /var/log/prod-secrets.log
+      type: FileOrCreate
+# add volumeMounts
+  - name: audit
+    mountPath: /etc/kubernetes/prod-audit.yaml
+    readOnly: true
+  - name: audit-log
+    mountPath: /var/log/prod-secrets.log
+    readOnly: false
+# esc and save, make sure the kube-apiserver restarts
+watch crictl ps</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kubesec scan /root/kubesec-pod.yaml
+# set containers[*].securityContext.privileged to false
+kubesec scan /root/kubesec-pod.yaml &gt; /root/kubesec_success_report.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp node kubeadm kubelet update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ssh cluster2-controlplane
+# edit the Kubernetes apt repository
+vi /etc/apt/sources.list.d/kubernetes.list
+deb [signed-by=/etc/apt/keyrings/kubernetes-apt-keyring.gpg] https://pkgs.k8s.io/core:/stable:/v1.31/deb/ /
+# to download k8s GPG public key, save it as binary in the directory `/etc/apt/keyrings/`
+echo 'y' | curl -fsSL https://pkgs.k8s.io/core:/stable:/v1.30/deb/Release.key | sudo gpg --yes --dearmor -o /etc/apt/keyrings/kubernetes-apt-keyring.gpg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># TODO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">verify that I can replace above commands with steps in below URL
+#      https://kubernetes.io/docs/setup/production-environment/tools/kubeadm/install-kubeadm/
+apt-get update
+apt-cache madison kubeadm
+apt-get install kubeadm=1.31.0-1.1
+# upgrade the K8s cluster
+kubeadm upgrade plan v1.31.0
+kubeadm upgrade apply v1.31.0
+# upgrade the kubelet, then mark the cp node as schedulable
+apt-get install kubelet=1.31.0-1.1
+kubectl uncordon cluster2-controlplane
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># TODO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>check since which command was this node made un-schdeulable
+systemctl daemon-reload
+systemctl restart kubelet</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># enable file_output in /etc/falco/falco.yaml
+file_output:
+  enabled: true
+  keep_alive: false
+  filename: /opt/security_incidents/alerts.log  # where you will log the alerts
+# add the update rule under the /etc/falco/falco_rules.local.yaml
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t># TODO:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">do you copy this from falco.yaml and just change the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>priority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>?
+- rule: Write below binary dir
+  desc: an attempt to write to any file below a set of binary directories
+  condition: &gt;
+    bin_dir and evt.dir = &lt; and open_write
+    and not package_mgmt_procs
+    and not exe_running_docker_save
+    and not python_running_get_pip
+    and not python_running_ms_oms
+    and not user_known_write_below_binary_dir_activities
+  output: &gt;
+    File below a known binary directory opened for writing (user_id=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>%user.uid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> file_updated=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>%fd.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> command=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>%proc.cmdline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">)
+  priority: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>CRITICAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+  tags: [filesystem, mitre_persistence]
+# hot reload: only update necesary part, keep existing session/connection, suitable for HA, config/partial code update
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>kill -1 $(cat /var/run/falco.pid)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+# or restart the service: clean up old states, all services supported, impact on high traffic services
+systemctl restart falco</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vi Dockerfile
+FROM alpine:3.12                              # change this
+RUN apk update &amp;&amp; apk add vim nginx&gt;=1.18.0   # change this
+RUN addgroup -S myuser &amp;&amp; adduser -S myuser -G myuser
+COPY ./run.sh run.sh
+RUN ["chmod", "+x", "./run.sh"]
+USER newuser                                  # change this
+ENTRYPOINT ["/bin/sh" , "./run.sh"]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># TODO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>what about the no-curl part?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>securityContext
+runAsUser
+capabilities.add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k get po ubuntu-sleeper -oyaml &gt; 3-5.yaml
+vi 3-5.yaml
+…
+spec:
+  containers:
+  - image: ubuntu
+    securityContext:
+      runAsUser: 0
+      capabilities:
+        add: ["SYS_TIME"]
+…
+k replace --force -f 3-5.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ImagePolicyWebhook
+AdmissionController
+AdmissionConfiguration
+admission-control-config-file
+enable-admission-plugins
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vi /etc/kubernetes/pki/admission_configuration.yaml
+# To set the policy to implicit deny
+...
+plugins:
+- name: ImagePolicyWebhook
+  configuration:
+    imagePolicy:
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>defaultAllow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">: false 
+# To add the kubeconfig file already created ImagePolicyWebhook resources
+...
+plugins:
+- name: ImagePolicyWebhook
+  configuration:
+    imagePolicy:
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>kubeConfigFile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>: /etc/kubernetes/pki/admission_kube_config.yaml
+vi /etc/kubernetes/manifests/kube-apiserver.yaml
+    - --enable-admission-plugins=NodeRestriction,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>ImagePolicyWebhook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> - --admission-control-config-file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>=/etc/kubernetes/pki/admission_configuration.yaml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Immutable pods
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># if `readOnlyRootFilesystem` exists and is set to true, then it's good and shouldn't be deleted.
+# if `privileged` exists and is set to true, then we need to delete this pod definition file.
+# if `readOnlyRootFilesytem` is not defined, we should delete that pod definition file as well.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sevice type
+unexposing ports to minimize external access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k -n system-hardening get svc nginx-external-service -oyaml &gt; 3-8.yaml
+vi 3-8.yaml
+apiVersion: v1
+kind: Service
+metadata:
+  name: nginx-external-service
+  namespace: system-hardening
+spec:
+  selector:
+    app: nginx-external
+  ports:
+    - name: http
+      protocol: TCP
+      port: 80
+      targetPort: 80
+    - name: https
+      protocol: TCP
+      port: 443
+      targetPort: 443
+  type: ClusterIP       # change this and remove nodeport number
+# esc and save
+k replace --force -f 3-8.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -625,6 +1850,38 @@
       <color theme="1"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -672,7 +1929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +1962,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1022,36 +2300,422 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88647C6-48F9-7245-B94A-FFCF930897A6}">
   <sheetPr>
-    <tabColor rgb="FF7030A0"/>
+    <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="145.1640625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="208">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="256">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="96">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="144">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="409.6">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="160">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="365">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409" customHeight="1">
+      <c r="A13" s="13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="320">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="48">
+      <c r="A15" s="13">
+        <v>2</v>
+      </c>
+      <c r="B15" s="13">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="272">
+      <c r="A16" s="13">
+        <v>2</v>
+      </c>
+      <c r="B16" s="13">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="160">
+      <c r="A17" s="13">
+        <v>2</v>
+      </c>
+      <c r="B17" s="13">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="128">
+      <c r="A18" s="13">
+        <v>2</v>
+      </c>
+      <c r="B18" s="13">
+        <v>6</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="144">
+      <c r="A19" s="13">
+        <v>2</v>
+      </c>
+      <c r="B19" s="13">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="48">
+      <c r="A20" s="13">
+        <v>2</v>
+      </c>
+      <c r="B20" s="13">
+        <v>8</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="408" customHeight="1">
+      <c r="A21" s="16">
+        <v>2</v>
+      </c>
+      <c r="B21" s="16">
+        <v>9</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="140" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" ht="80">
+      <c r="A23" s="13">
+        <v>3</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="64">
+      <c r="A24" s="13">
+        <v>3</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="48">
+      <c r="A25" s="13">
+        <v>3</v>
+      </c>
+      <c r="B25" s="13">
+        <v>3</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="365">
+      <c r="A26" s="13">
+        <v>3</v>
+      </c>
+      <c r="B26" s="13">
+        <v>4</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="204">
+      <c r="A27" s="13">
+        <v>3</v>
+      </c>
+      <c r="B27" s="13">
+        <v>5</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="320">
+      <c r="A28" s="13">
+        <v>3</v>
+      </c>
+      <c r="B28" s="13">
+        <v>6</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="48">
+      <c r="A29" s="13">
+        <v>3</v>
+      </c>
+      <c r="B29" s="13">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="350">
+      <c r="A30" s="13">
+        <v>3</v>
+      </c>
+      <c r="B30" s="13">
+        <v>8</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{0D28C639-3FFD-F64A-8D8A-298EE36BB2C9}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{B19453C2-609D-434D-9292-A2C123B814C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1123,8 +2787,8 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="141" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A11" zoomScale="141" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1757,7 +3421,7 @@
   </sheetPr>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
@@ -2225,7 +3889,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/cks_kcsa_kcna.xlsx
+++ b/cks_kcsa_kcna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiwen/Documents/wysi/project-cyber-monday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BDED46-3018-F145-B1CF-14F7C142A311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F4E49-9B51-AC41-A566-89C96781690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18600" yWindow="-1460" windowWidth="18600" windowHeight="20020" xr2:uid="{87DCA1D7-EB5D-4C4C-A7D2-7199B399E110}"/>
   </bookViews>
@@ -502,14 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attemp-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attemp-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1789,12 +1781,20 @@
 k replace --force -f 3-8.yaml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Attempt-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attempt-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1882,6 +1882,17 @@
       <color theme="4"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1929,7 +1940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1945,16 +1956,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -1976,13 +1981,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2304,403 +2321,403 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="6" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="145.1640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="145.1640625" style="9" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="208">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="D5" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="256">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="208">
-      <c r="A5" s="13">
+      <c r="D6" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="80">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="144">
+      <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="256">
-      <c r="A6" s="13">
+    <row r="10" spans="1:4" ht="409.6">
+      <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B10" s="11">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="160">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="365">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409" customHeight="1">
+      <c r="A13" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="96">
-      <c r="A7" s="13">
+      <c r="B13" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="13">
+      <c r="C13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="320">
+      <c r="A14" s="11">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="48">
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
+      <c r="B15" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="144">
-      <c r="A8" s="13">
+      <c r="C15" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="272">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="11">
+        <v>4</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="160">
+      <c r="A17" s="11">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11">
+        <v>5</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="128">
+      <c r="A18" s="11">
+        <v>2</v>
+      </c>
+      <c r="B18" s="11">
+        <v>6</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="144">
+      <c r="A19" s="11">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11">
+        <v>7</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="48">
+      <c r="A20" s="11">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11">
+        <v>8</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="408" customHeight="1">
+      <c r="A21" s="15">
+        <v>2</v>
+      </c>
+      <c r="B21" s="15">
+        <v>9</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="140" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" ht="80">
+      <c r="A23" s="11">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="13">
+      <c r="C23" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="64">
+      <c r="A24" s="11">
+        <v>3</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="48">
+      <c r="A25" s="11">
+        <v>3</v>
+      </c>
+      <c r="B25" s="11">
+        <v>3</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="365">
+      <c r="A26" s="11">
+        <v>3</v>
+      </c>
+      <c r="B26" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="48">
-      <c r="A9" s="13">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="C26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="204">
+      <c r="A27" s="11">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="409.6">
-      <c r="A10" s="13">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="C27" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="320">
+      <c r="A28" s="11">
+        <v>3</v>
+      </c>
+      <c r="B28" s="11">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="160">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="C28" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="48">
+      <c r="A29" s="11">
+        <v>3</v>
+      </c>
+      <c r="B29" s="11">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="365">
-      <c r="A12" s="13">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="C29" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="350">
+      <c r="A30" s="11">
+        <v>3</v>
+      </c>
+      <c r="B30" s="11">
         <v>8</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="409" customHeight="1">
-      <c r="A13" s="13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="320">
-      <c r="A14" s="13">
-        <v>2</v>
-      </c>
-      <c r="B14" s="13">
-        <v>2</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="48">
-      <c r="A15" s="13">
-        <v>2</v>
-      </c>
-      <c r="B15" s="13">
-        <v>3</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="272">
-      <c r="A16" s="13">
-        <v>2</v>
-      </c>
-      <c r="B16" s="13">
-        <v>4</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="160">
-      <c r="A17" s="13">
-        <v>2</v>
-      </c>
-      <c r="B17" s="13">
-        <v>5</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="128">
-      <c r="A18" s="13">
-        <v>2</v>
-      </c>
-      <c r="B18" s="13">
-        <v>6</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="144">
-      <c r="A19" s="13">
-        <v>2</v>
-      </c>
-      <c r="B19" s="13">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="48">
-      <c r="A20" s="13">
-        <v>2</v>
-      </c>
-      <c r="B20" s="13">
-        <v>8</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="408" customHeight="1">
-      <c r="A21" s="16">
-        <v>2</v>
-      </c>
-      <c r="B21" s="16">
-        <v>9</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="140" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" ht="80">
-      <c r="A23" s="13">
-        <v>3</v>
-      </c>
-      <c r="B23" s="13">
-        <v>1</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="64">
-      <c r="A24" s="13">
-        <v>3</v>
-      </c>
-      <c r="B24" s="13">
-        <v>2</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="48">
-      <c r="A25" s="13">
-        <v>3</v>
-      </c>
-      <c r="B25" s="13">
-        <v>3</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="365">
-      <c r="A26" s="13">
-        <v>3</v>
-      </c>
-      <c r="B26" s="13">
-        <v>4</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="204">
-      <c r="A27" s="13">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13">
-        <v>5</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="320">
-      <c r="A28" s="13">
-        <v>3</v>
-      </c>
-      <c r="B28" s="13">
-        <v>6</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="48">
-      <c r="A29" s="13">
-        <v>3</v>
-      </c>
-      <c r="B29" s="13">
-        <v>7</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="350">
-      <c r="A30" s="13">
-        <v>3</v>
-      </c>
-      <c r="B30" s="13">
-        <v>8</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2737,7 +2754,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2768,7 +2785,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2787,8 +2804,8 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="141" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E9"/>
+    <sheetView topLeftCell="C1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2920,11 +2937,11 @@
       <c r="D10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>127</v>
+      <c r="E10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -3422,397 +3439,988 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="7"/>
-    <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="9" width="15.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="A1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="1">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C7" s="17" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9">
         <v>3</v>
       </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9">
         <v>3</v>
       </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9">
         <v>3</v>
       </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9">
         <v>4</v>
       </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9">
         <v>4</v>
       </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9">
         <v>4</v>
       </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9">
         <v>5</v>
       </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9">
         <v>5</v>
       </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1">
+      <c r="C16" s="17"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1">
+      <c r="C17" s="17"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1">
+      <c r="C18" s="17"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1">
+      <c r="C19" s="17"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1">
+      <c r="C20" s="17"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1">
+      <c r="C21" s="17"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1">
+      <c r="C22" s="17"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1">
+      <c r="C23" s="17"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1">
+      <c r="C24" s="17"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1">
+      <c r="C25" s="17"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1">
+      <c r="C26" s="17"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1">
+      <c r="C27" s="17"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1">
+      <c r="C28" s="17"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1">
+      <c r="C29" s="17"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="1">
+      <c r="C30" s="17"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1">
+      <c r="C31" s="17"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1">
+      <c r="C32" s="17"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="1">
+      <c r="C33" s="17"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1">
+      <c r="C34" s="17"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1">
+      <c r="C35" s="17"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1">
+      <c r="C36" s="17"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1">
+      <c r="C37" s="17"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1">
+      <c r="C38" s="17"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="1">
+      <c r="C39" s="17"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="1">
+      <c r="C40" s="17"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="1">
+      <c r="C41" s="17"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="1">
+      <c r="C42" s="17"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="1">
+      <c r="C43" s="17"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="1">
+      <c r="C44" s="17"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="1">
+      <c r="C45" s="17"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="1">
+      <c r="C46" s="17"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="1">
+      <c r="C47" s="17"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="1">
+      <c r="C48" s="17"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="1">
+      <c r="C49" s="17"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="1">
+      <c r="C50" s="17"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="1">
+      <c r="C51" s="17"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="1">
+      <c r="C52" s="17"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="1">
+      <c r="C53" s="17"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="1">
+      <c r="C54" s="17"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="1">
+      <c r="C55" s="17"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="1">
+      <c r="C56" s="17"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="1">
+      <c r="C57" s="17"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="1">
+      <c r="C58" s="17"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="1">
+      <c r="C59" s="17"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="1">
+      <c r="C60" s="17"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="1">
+      <c r="C61" s="17"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="1">
+      <c r="C62" s="17"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="1">
+      <c r="C63" s="17"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="1">
+      <c r="C64" s="17"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="1">
+      <c r="C65" s="17"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="1">
+      <c r="C66" s="17"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9">
         <v>22</v>
       </c>
+      <c r="C67" s="17"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3883,13 +4491,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE82628-F9E8-C74C-AFE5-1F220A7958FF}">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3898,7 +4503,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="1"/>
@@ -3976,7 +4581,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="16">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1"/>
@@ -4014,7 +4619,7 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="16">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="1"/>

--- a/cks_kcsa_kcna.xlsx
+++ b/cks_kcsa_kcna.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiwen/Documents/wysi/project-cyber-monday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F4E49-9B51-AC41-A566-89C96781690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729DB672-5DE6-C24F-884B-1228D70DDC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18600" yWindow="-1460" windowWidth="18600" windowHeight="20020" xr2:uid="{87DCA1D7-EB5D-4C4C-A7D2-7199B399E110}"/>
+    <workbookView xWindow="-24900" yWindow="1180" windowWidth="23860" windowHeight="17800" activeTab="4" xr2:uid="{87DCA1D7-EB5D-4C4C-A7D2-7199B399E110}"/>
   </bookViews>
   <sheets>
     <sheet name="kk_CKS" sheetId="3" r:id="rId1"/>
     <sheet name="kk_KCNA" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="kk_KCSA" sheetId="5" state="hidden" r:id="rId3"/>
-    <sheet name="killercoda_CKS" sheetId="8" r:id="rId4"/>
-    <sheet name="killer.sh_CKS" sheetId="9" r:id="rId5"/>
+    <sheet name="killer.sh_CKS" sheetId="9" r:id="rId4"/>
+    <sheet name="killercoda_CKS" sheetId="8" r:id="rId5"/>
     <sheet name="pluralsight_KCNA" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="freecodecamp_KCNA" sheetId="7" state="hidden" r:id="rId7"/>
     <sheet name="other_resources" sheetId="10" r:id="rId8"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="199">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1789,12 +1789,850 @@
     <t>Attempt-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Nope.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># allows all Pods in Namespace app to only connect to Pods with labels id: data in Namespace data
+apiVersion: "cilium.io/v2"
+kind: CiliumNetworkPolicy
+metadata:
+  name: policy1
+  namespace: app
+spec:
+  endpointSelector:
+    matchLabels: {}
+  egress:
+  - toEndpoints:
+    - matchLabels:
+        io.kubernetes.pod.namespace: data
+        id: data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi ~/.vimrc
+set expandtab
+set tabstop=2
+set shiftwidth=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat /var/log/syslog | grep apiserver
+cd /var/log/pods/kube-system_kube-apiserver-controlplane_XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh node01
+cat /etc/kubernetes/kubelet.conf 
+export KUBECONFIG=/etc/kubernetes/kubelet.conf
+k label node controlplane killercoda/one=123
+k label node node01 node-restriction.kubernetes.io/one=123
+vi /etc/kubernetes/manifests/kube-apiserver.yaml 
+spec:
+  containers:
+  - command:
+    ... 
+    - --enable-admission-plugins=NodeRestriction
+ssh node01
+export KUBECONFIG=/etc/kubernetes/kubelet.conf
+k label node controlplane killercoda/two=123
+k label node node01 node-restriction.kubernetes.io/two=123
+k label node node01 test/two=123 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># kill an unwanted process listening on port 1234
+apt install net-tools
+netstat -tulpan | grep 1234
+lsof -i :1234
+# find pull path
+ls -l /proc/14390/exe
+kill 14390
+# delete the pull path/binary
+rm /usr/bin/app1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> /var/log/pods/kube-system_kube-apiserver-controlplane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>_36b3bac598f6bd76f4b97286d2bcb99b/kube-apiserver/X.log 
+2024-12-31T06:22:08.80934717Z stderr F Error: unknown flag: --this-is-very-wrong
+# check pod log
+cd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> /var/log/pods/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">kube-system_kube-apiserver-controlplane_XXX
+crictl ps
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>crictl logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 497ad50c47b4d    # containerID of kube-apiserver
+# check syslog
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>journalctl | grep apiserver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+cat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> /var/log/syslog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> | grep apiserver 
+tail -f /var/log/syslog | grep apiserver</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># remove kube-bench of package manager
+apt show kube-bench
+apt remove kube-bench
+# stop the vsftpd service
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>lsof -i :21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+service vsftpd stop
+lsof -I :21</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>sha512sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> /usr/bin/kubelet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>sha512sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> kubernetes/server/bin/kubelet</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># strace will list various syscalls a process makes
+strace kill -9 1234
+strace kill -9 1234 2&gt;&amp;1 | grep 1234
+strace kill -15 1234
+strace kill -15 1234 2&gt;&amp;1 | grep 1234
+strace nc -l -p 8080 2&gt;&amp;1 | grep 8080
+ps aux | grep kube-apiserver
+strace -p &lt;pid-of-kube-apiserver&gt; -f
+strace -p 2219 -f -cw
+strace: Process 2219 attached with 7 threads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>When it comes to manual analysis of K8s manifest files, use below checks:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+securityContext:
+  readOnlyRootFilesystem: true
+  allowPrivilegeEscalation: false
+  privileged: false</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FROM ubuntu  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t># larger for building</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+ARG DEBIAN_FRONTEND=noninteractive
+RUN apt-get update &amp;&amp; apt-get install -y golang-go
+COPY app.go .
+RUN CGO_ENABLED=0 go build app.go
+FROM alpine.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> # smaller for running - multiple stages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+COPY --from=0 /app .
+CMD ["./app"]
+---
+...
+COPY --from=0 /app /home/appuser/
+USER appuser </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> # not running a containerised application as root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+CMD ["/home/appuser/app"]
+---
+FROM ubuntu
+...
+RUN echo $SECRET_TOKEN &gt; /tmp/token </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t># still persist as layer in the container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+RUN /etc/register.sh /tmp/token
+RUN rm /tmp/token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> # although being deleted later</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+EXPOSE 3306
+CMD ["/run.sh"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># pod-definition.yaml
+spec:
+  automountServiceAccountToken: false
+# apply &amp; verify
+kubectl -n one exec -it pod-one -- mount | grep serviceaccount
+kubectl -n one exec -it pod-one -- cat /var/run/secrets/kubernetes.io/serviceaccount/token
+# sa-definition.yaml
+apiVersion: v1
+kind: ServiceAccount
+automountServiceAccountToken: false
+# edit &amp; verify
+kubectl -n two exec -it pod-two -- mount | grep serviceaccount
+kubectl -n two exec -it pod-two -- cat /var/run/secrets/kubernetes.io/serviceaccount/token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># from-literal
+k -n ns-secure create secret generic sec-a1 --from-literal user=admin
+# from-file
+k -n ns-secure create secret generic sec-a2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--from-file index=/etc/hosts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+k -n ns-secure run secret-manager --image httpd:alpine --dry-run=client -oyaml &gt; 34-2.yaml
+vi 34-2.yaml
+...
+spec:
+  volumes:                            # mount as volume
+  - name: sec-a2                      # add
+    secret:                           # add
+      secretName: sec-a2              # add
+  serviceAccountName: secret-manager  # add 
+  containers:
+  - name: secret-manager
+    volumeMounts:             # mount as volume, readonly
+    - name: sec-a2            # add
+      mountPath: /etc/sec-a2  # add
+      readOnly: true          # add
+    env:                
+    - name: SEC_A1      # add as environment variable
+      valueFrom:        # add
+        secretKeyRef:   # add
+          name: sec-a1  # add
+          key: user     # add</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k get secret -n one
+NAME   TYPE     DATA   AGE
+s1     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>Opaque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">   1      93s
+s2     Opaque   1      93s
+echo $(kubectl -n one get secret s1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>-ojsonpath="{.data.data}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> | base64 -d) &gt;&gt; /opt/ks/one
+echo $(kubectl -n one get secret s2 -ojsonpath="{.data.data}" | base64 -d) &gt;&gt; /opt/ks/one
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k -n applications create role smoke --verb create,delete --resource pods,deployments,sts
+k -n applications create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rolebinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> smoke --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> smoke --user smoke
+k get ns
+k -n applications create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rolebinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> smoke-view --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>clusterrole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> view --user smoke
+k -n default create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rolebinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> smoke-view --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>clusterrole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> view --user smoke
+k -n kube-node-lease create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rolebinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> smoke-view --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>clusterrole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> view --user smoke
+k -n kube-public create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rolebinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> smoke-view --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>clusterrole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> view --user smoke
+# Just list secret names, no content.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEAWARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> list secret role also allows user to see credentials (possible mis-configuration!)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># create runtime class
+apiVersion: node.k8s.io/v1
+kind: RuntimeClass
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">metadata:
+  name: gvisor
+handler: runsc
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># create pod
+apiVersion: v1
+kind: Pod
+metadata:
+  name: sec
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">spec:
+  runtimeClassName: gvisor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">  containers:
+    - image: nginx:1.21.5-alpine
+      name: sec
+# verify runtime of the pod/sec by dmesg tool
+k exec sec -- dmesg | grep -i gvisor</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># create encryptionconfiguration
+mkdir -p /etc/kubernetes/etcd
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>echo -n this-is-very-sec | base64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+cat &lt;&lt;EOF&gt; /etc/kubernetes/etcd/ec.yaml
+apiVersion: apiserver.config.k8s.io/v1
+kind: EncryptionConfiguration
+resources:
+  - resources:
+    - secrets
+    providers:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">- aesgcm:  # provider type: asegcm
+        keys:
+        - name: key1
+          secret: dGhpcy1pcy12ZXJ5LXNlYw==
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">          # all new secrets should be encrypted with this
+    - identity: {} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t># the other provider: can read existing unencrypted secrets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+EOF
+# at apiserver config yaml file, add args:
+- command:
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--encryption-provider-config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>=/etc/kubernetes/etcd/ec.yaml
+# at apiserver config yaml file, add volume:
+    volumes:
+    - hostPath:
+      path: /etc/kubernetes/etcd
+      type: DirectoryOrCreate
+    name: etcd
+# at apiserver config yaml file, add volumeMounts:
+    volumeMounts:
+    - mountPath: /etc/kubernetes/etcd
+      name: etcd
+      readOnly: true</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1813,12 +2651,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1844,11 +2676,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Menlo Regular"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1893,6 +2720,37 @@
       <color theme="0"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2F3337"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1908,7 +2766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1931,75 +2789,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2321,7 +3226,7 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2329,255 +3234,255 @@
   <cols>
     <col min="1" max="2" width="6" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="145.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="145.1640625" style="5" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="208">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="256">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="80">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="144">
-      <c r="A8" s="11">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="409.6">
-      <c r="A10" s="11">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="160">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>1</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="365">
-      <c r="A12" s="11">
+      <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>8</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="409" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="7">
         <v>2</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="320">
-      <c r="A14" s="11">
+      <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="48">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="272">
-      <c r="A16" s="11">
+      <c r="A16" s="7">
         <v>2</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="7">
         <v>4</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="160">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="7">
         <v>5</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="128">
-      <c r="A18" s="11">
+      <c r="A18" s="7">
         <v>2</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="7">
         <v>6</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="144">
-      <c r="A19" s="11">
+      <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="7">
         <v>7</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="48">
-      <c r="A20" s="11">
+      <c r="A20" s="7">
         <v>2</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="7">
         <v>8</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2602,122 +3507,122 @@
       <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" ht="80">
-      <c r="A23" s="11">
+      <c r="A23" s="7">
         <v>3</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="7">
         <v>1</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="64">
-      <c r="A24" s="11">
+      <c r="A24" s="7">
         <v>3</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="7">
         <v>2</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="48">
-      <c r="A25" s="11">
+      <c r="A25" s="7">
         <v>3</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="7">
         <v>3</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="365">
-      <c r="A26" s="11">
+      <c r="A26" s="7">
         <v>3</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="7">
         <v>4</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="204">
-      <c r="A27" s="11">
+      <c r="A27" s="7">
         <v>3</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="7">
         <v>5</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="320">
-      <c r="A28" s="11">
+      <c r="A28" s="7">
         <v>3</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="7">
         <v>6</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="48">
-      <c r="A29" s="11">
+      <c r="A29" s="7">
         <v>3</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="7">
         <v>7</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="350">
-      <c r="A30" s="11">
+      <c r="A30" s="7">
         <v>3</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="7">
         <v>8</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2753,7 +3658,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2784,7 +3689,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2798,640 +3703,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D1593A-60CA-7447-B941-D38AFCB595A5}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:G44"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="196">
-      <c r="B10" s="3">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="3">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="3">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="3">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="3">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="3">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="3">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="3">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="3">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="3">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="3">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="3">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="3">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="3">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="3">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="3">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="3">
-        <v>25</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="3">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="3">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="3">
-        <v>28</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="3">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="3">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="3">
-        <v>31</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="3">
-        <v>32</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="3">
-        <v>33</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="3">
-        <v>34</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="3">
-        <v>35</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="3">
-        <v>36</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="3">
-        <v>37</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="3">
-        <v>38</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="3">
-        <v>39</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="3">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="3">
-        <v>41</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="Link to killercoda at Youtube" xr:uid="{801F38EF-1198-7149-A133-DDF4B4E36FBD}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{1B375D11-4F36-F646-838B-AFBFC10B7FF9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787FC8CE-F471-4541-8EC6-C6DDD4D0E6CF}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -3439,14 +3710,14 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="9" width="15.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -3455,972 +3726,972 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5">
         <v>4</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5">
         <v>5</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5">
         <v>5</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5">
         <v>5</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5">
         <v>6</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5">
         <v>6</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5">
         <v>6</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5">
         <v>7</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5">
         <v>7</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5">
         <v>7</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5">
         <v>8</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5">
         <v>8</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5">
         <v>8</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5">
         <v>9</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5">
         <v>9</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5">
         <v>9</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5">
         <v>10</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5">
         <v>10</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5">
         <v>10</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5">
         <v>11</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5">
         <v>11</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5">
         <v>11</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5">
         <v>12</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5">
         <v>12</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5">
         <v>12</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5">
         <v>13</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5">
         <v>13</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5">
         <v>13</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5">
         <v>14</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5">
         <v>14</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5">
         <v>14</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5">
         <v>15</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5">
         <v>15</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5">
         <v>15</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5">
         <v>16</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5">
         <v>16</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5">
         <v>16</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5">
         <v>17</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5">
         <v>17</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5">
         <v>17</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5">
         <v>18</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5">
         <v>18</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5">
         <v>18</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5">
         <v>19</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5">
         <v>19</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5">
         <v>19</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5">
         <v>20</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5">
         <v>20</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5">
         <v>20</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5">
         <v>21</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5">
         <v>21</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5">
         <v>21</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5">
         <v>22</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5">
         <v>22</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5">
         <v>22</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4429,6 +4700,690 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D1593A-60CA-7447-B941-D38AFCB595A5}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D36" sqref="D34:D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" ht="240">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="64">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" ht="240">
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" ht="48">
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" ht="320">
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" ht="224">
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="18">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="18">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="18">
+        <v>10</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="18">
+        <v>11</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="18">
+        <v>12</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="18">
+        <v>13</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="18">
+        <v>14</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="18">
+        <v>16</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="18">
+        <v>17</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="18">
+        <v>18</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="18">
+        <v>19</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="18">
+        <v>20</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="18">
+        <v>21</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="18">
+        <v>22</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="18">
+        <v>23</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="18">
+        <v>24</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="18">
+        <v>25</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="18">
+        <v>26</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="18">
+        <v>27</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="18">
+        <v>28</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="2:7" ht="170">
+      <c r="B32" s="18">
+        <v>29</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="2:7" ht="288">
+      <c r="B33" s="18">
+        <v>30</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="2:7" ht="409.6" customHeight="1">
+      <c r="B34" s="25">
+        <v>31</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="2:7" ht="74" customHeight="1">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="18">
+        <v>32</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="2:7" ht="112">
+      <c r="B37" s="18">
+        <v>33</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="2:7" ht="409.6">
+      <c r="B38" s="18">
+        <v>34</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="2:7" ht="256">
+      <c r="B39" s="18">
+        <v>35</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="2:7" ht="372">
+      <c r="B40" s="18">
+        <v>36</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="2:7" ht="96">
+      <c r="B41" s="18">
+        <v>37</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="2:7" ht="208">
+      <c r="B42" s="18">
+        <v>38</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="2:7" ht="160">
+      <c r="B43" s="18">
+        <v>39</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="2:7" ht="112">
+      <c r="B44" s="18">
+        <v>40</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="2:7" ht="32">
+      <c r="B45" s="18">
+        <v>41</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="Link to killercoda at Youtube" xr:uid="{801F38EF-1198-7149-A133-DDF4B4E36FBD}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{1B375D11-4F36-F646-838B-AFBFC10B7FF9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4446,7 +5401,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1" ht="16">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4476,7 +5431,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4503,7 +5458,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="1"/>
@@ -4581,7 +5536,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="16">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1"/>
@@ -4619,7 +5574,7 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="16">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="1"/>

--- a/cks_kcsa_kcna.xlsx
+++ b/cks_kcsa_kcna.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiwen/Documents/wysi/project-cyber-monday/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wysiwyz/SideProj/project-cyber-monday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729DB672-5DE6-C24F-884B-1228D70DDC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD9C06-0A07-E649-A482-66646B642690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24900" yWindow="1180" windowWidth="23860" windowHeight="17800" activeTab="4" xr2:uid="{87DCA1D7-EB5D-4C4C-A7D2-7199B399E110}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{87DCA1D7-EB5D-4C4C-A7D2-7199B399E110}"/>
   </bookViews>
   <sheets>
     <sheet name="kk_CKS" sheetId="3" r:id="rId1"/>
     <sheet name="kk_KCNA" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="kk_KCSA" sheetId="5" state="hidden" r:id="rId3"/>
-    <sheet name="killer.sh_CKS" sheetId="9" r:id="rId4"/>
-    <sheet name="killercoda_CKS" sheetId="8" r:id="rId5"/>
+    <sheet name="killercoda_CKS" sheetId="8" r:id="rId4"/>
+    <sheet name="killer.sh_CKS" sheetId="9" r:id="rId5"/>
     <sheet name="pluralsight_KCNA" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="freecodecamp_KCNA" sheetId="7" state="hidden" r:id="rId7"/>
     <sheet name="other_resources" sheetId="10" r:id="rId8"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="221">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,21 +539,6 @@
   </si>
   <si>
     <t>https://kubernetes.io/docs/tutorials/security/apparmor/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">docker-default # appArmor profile
-snap.lxd.lxc
-/usr/sbin/tcpdump
-spec:
-  template:
-     spec:
-       securityContext:
-         appArmorProfile:
-           localhostProfile: docker-default
-scp /root/profile node01:profile
-apparmer_parser
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2049,112 +2034,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">FROM ubuntu  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t># larger for building</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">
-ARG DEBIAN_FRONTEND=noninteractive
-RUN apt-get update &amp;&amp; apt-get install -y golang-go
-COPY app.go .
-RUN CGO_ENABLED=0 go build app.go
-FROM alpine.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> # smaller for running - multiple stages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">
-COPY --from=0 /app .
-CMD ["./app"]
----
-...
-COPY --from=0 /app /home/appuser/
-USER appuser </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> # not running a containerised application as root</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">
-CMD ["/home/appuser/app"]
----
-FROM ubuntu
-...
-RUN echo $SECRET_TOKEN &gt; /tmp/token </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t># still persist as layer in the container</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">
-RUN /etc/register.sh /tmp/token
-RUN rm /tmp/token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> # although being deleted later</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">
-EXPOSE 3306
-CMD ["/run.sh"]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t># pod-definition.yaml
 spec:
   automountServiceAccountToken: false
@@ -2262,218 +2141,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">k -n applications create role smoke --verb create,delete --resource pods,deployments,sts
-k -n applications create </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>rolebinding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> smoke --</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>role</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> smoke --user smoke
-k get ns
-k -n applications create </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>rolebinding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> smoke-view --</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>clusterrole</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> view --user smoke
-k -n default create </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>rolebinding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> smoke-view --</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>clusterrole</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> view --user smoke
-k -n kube-node-lease create </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>rolebinding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> smoke-view --</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>clusterrole</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> view --user smoke
-k -n kube-public create </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>rolebinding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> smoke-view --</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>clusterrole</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> view --user smoke
-# Just list secret names, no content.   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>BEAWARE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> list secret role also allows user to see credentials (possible mis-configuration!)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># create runtime class
 apiVersion: node.k8s.io/v1
 kind: RuntimeClass
@@ -2616,15 +2283,2536 @@
 # at apiserver config yaml file, add volume:
     volumes:
     - hostPath:
-      path: /etc/kubernetes/etcd
-      type: DirectoryOrCreate
-    name: etcd
+        path: /etc/kubernetes/etcd
+        type: DirectoryOrCreate
+      name: etcd
 # at apiserver config yaml file, add volumeMounts:
     volumeMounts:
     - mountPath: /etc/kubernetes/etcd
       name: etcd
-      readOnly: true</t>
-    </r>
+      readOnly: true
+# encrypt existing secrets
+k -n one get secrets -o json | kubectl replace -f -
+k -n two get secrets -o json | kubectl replace -f -
+k -n three get secrets -o json | kubectl replace -f -
+ETCDCTL_API=3 etcdctl \
+--cert /etc/kubernetes/pki/apiserver-etcd-client.crt \
+--key /etc/kubernetes/pki/apiserver-etcd-client.key \
+--cacert /etc/kubernetes/pki/etcd/ca.crt get /registry/secrets/one/s1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k create secret generic holy --from-literal creditcard=1111222233334444
+k exec -it pod1 -- env | grep "HOLY"
+k exec -it pod1 -- cat /etc/diver/hosts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k -n ns1 create sa pipeline
+k -n ns2 create sa pipeline
+k create clusterrolebinding ns1-pipeline-view --clusterrole=view --serviceaccount=ns1:pipeline
+k create clusterrolebinding ns2-pipeline-view --clusterrole=view --serviceaccount=ns2:pipeline
+k -n ns1 create role deploy-role --verb=create,delete --resource=deployments
+k -n ns2 create role deploy-role --verb=create,delete --resource=deployments
+k -n ns1 create rolebinding deploy-role-pipeline --role=deploy-role --serviceaccount=ns1:pipeline
+k -n ns2 create rolebinding deploy-role-pipeline --role=deploy-role --serviceaccount=ns2:pipeline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FROM ubuntu  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t># larger for building</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+ARG DEBIAN_FRONTEND=noninteractive
+RUN apt-get update &amp;&amp; apt-get install -y golang-go
+COPY app.go .
+RUN CGO_ENABLED=0 go build app.go
+FROM alpine.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> # smaller for running - multiple stages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+COPY --from=0 /app .
+CMD ["./app"]
+---
+...
+COPY --from=0 /app /home/appuser/
+USER appuser </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> # not running a containerised application as root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+CMD ["/home/appuser/app"]
+---
+FROM ubuntu
+...
+RUN echo $SECRET_TOKEN &gt; /tmp/token </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t># still persist as layer in the container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+RUN /etc/register.sh /tmp/token
+RUN rm /tmp/token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> # although being deleted later</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+EXPOSE 3306
+CMD ["/run.sh"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k -n applications create role smoke --verb create,delete --resource pods,deployments,sts
+k -n applications create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>rolebinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> smoke --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> smoke --user smoke
+k get ns
+k -n applications create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>rolebinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> smoke-view --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>clusterrole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> view --user smoke
+k -n default create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>rolebinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> smoke-view --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>clusterrole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> view --user smoke
+k -n kube-node-lease create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>rolebinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> smoke-view --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>clusterrole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> view --user smoke
+k -n kube-public create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>rolebinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> smoke-view --</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>clusterrole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> view --user smoke
+# Just list secret names, no content.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>BEAWARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> list secret role also allows user to see credentials (possible mis-configuration!)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k run prime --image nginx:alpine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">-oyaml --dry-run=client --command -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">sh -c 'sleep 1d' &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>capd.yaml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+vi capd.yaml
+…
+  containers:
+  - command:
+    - sh
+    - -c
+    - sleep 1d
+    image: nginx:alpine
+    name: prime
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">    securityContext:
+      privileged: true
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t># esc and save
+k exec prime -- apk add iptables
+k exec prime -- iptables -L
+---
+spec:
+  ...
+  template:    
+    spec:
+   #  securityContext:
+     #  privileged: true
+      containers:
+        - name: habanero
+          securityContext:    # add
+            privileged: true. # add
+          ...</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">containers:
+- name:
+  securityContext:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">    allowPrivilegeEscalation: false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+* If you place this on podtemplate level security, you will get Error:
+strict decoding error: unknown field "spec.template.spec.securityContext.allowPrivilegeEscalation"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">apiVersion: networking.k8s.io/v1
+kind: NetworkPolicy
+metadata:
+  name: np
+  namespace: space1                                      # : space2
+spec:
+  podSelector: {}
+  policyTypes:
+  - Egress                                               # - Ingress
+  egress:                                                # ingress:
+  - to:                                                  # - from:
+    - namespaceSelector:
+        matchLabels:
+          kubernetes.io/metadata.name: space2            # : space1
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>ports:          # very important as they are two separate rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+    - protocol: TCP
+      port: 53
+    - protocol: UDP
+      port: 53</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k get deploy -n world
+k -n world expose deploy asia --port 80 --type ClusterIP --name asia
+k -n world expose deploy europe --port 80 --type ClusterIP --name europe
+k get ingressClass
+k create ing world --rule=world.universe.mine/europe*=europe:80 --rule=world.universe.mine/asia*=asia:80 -n world
+k -n world edit ing world
+...
+metadata:
+  annotations:
+    nginx.ingress.kubernetes.io/rewrite-target: /   # add this
+...
+spec:
+  ingressClassName: nginx   # also need to add the ingressClassName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">openssl req -x509 -nodes -days 365 -newkey rsa:2048 -keyout cert.key -out cert.crt -subj "/CN=world.universe.mine/O=world.universe.mine"
+# -x509                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>輸出一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> x.509 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">格式的憑證
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># -nodes                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>指定不要對生成的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> private key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>進行密碼保護</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> (private key not encrypted) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>讓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> private key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>可直接使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">, no-DES 
+# -days 365                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>憑證有效期限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 365 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">天
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># -newkey rsa:2048   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>指定生成一個新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> RSA private key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>，長度為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 2048 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># -keyout cert.key       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> private key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>輸出檔案名稱為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> cert.key
+# -out cert.crt               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>指定生成的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> self-signed certificate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>的輸出檔案名稱為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> cert.crt
+# -subj "/CN.../O..."      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>指定憑證的主題資訊，避免互動式輸入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">.  
+                                      CN common name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>主機名稱，通常是憑證所對應的主機或域名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">, O organization </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">組織名稱
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">k -n world create secret tls ingress-tls --key cert.key --cert cert.crt
+k -n world edit ing world
+…
+spec:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">  tls:
+  - hosts:
+    - world.universe.mine
+  secretName: ingress-tls</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat &lt;&lt;EOF&gt; /root/profiles.txt
+docker-default
+snap.lxd.lxc
+/usr/sbin/tcpdump
+EOF
+ssh node01
+apparmor_status
+exit
+# Update the profile name 
+spec:
+  template:
+     spec:
+       securityContext:
+         appArmorProfile:
+           localhostProfile: docker-default
+vi /root/profile  # to change profile name
+# install profile on cp node
+apparmor_parser /root/profile
+aa-status | grep docker-nginx-custom
+scp /root/profile node01:/root
+ssh node01
+apparmor_parser /root/profile
+aa-status | grep docker-nginx-custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vi /etc/kubernetes/manifests/kube-apiserver.yaml 
+# enable Audit Logs
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--audit-policy-file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">=/etc/kubernetes/audit-policy/policy.yaml
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--audit-log-path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>=/etc/kubernetes/audit-logs/audit.log
+    - --audit-log-maxsize=7
+    - --audit-log-maxbackup=2
+# add new VolumeMounts
+volumeMounts:
+  - mountPath: /etc/kubernetes/audit-policy/policy.yaml
+    name: audit-policy
+    readOnly: true
+  - mountPath: /etc/kubernetes/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>audit-logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+    name: audit-logs
+    readOnly: false
+# add new Volumes
+volumes:
+  - name: audit-policy
+    hostPath:
+      path: /etc/kubernetes/audit-policy/policy.yaml
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">   type: File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+  - name: audit-logs
+    hostPath:
+      path: /etc/kubernetes/audit-logs
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>type: DirectoryOrCreate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># create a new rsa private key, size set to 2048 bits, output at /root/60099.key
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">openssl genrsa -out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>60099.key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 2048
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+# create a csr for user named 60099@internal.users (common name)
+# req : for invoking the CSR generation utility
+# -new : creates a new CSR
+# -key : specifies the private key to use for signing the CSR
+# -out : specifies the output file for the CSR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>openssl req -new -key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 60099.key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> -out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">60099.csr
+# manually sign the CSR with the K8s CA file
+# x509 : process x509 certificates
+# -req : indicates that the input file is a CSR
+# -in : specifies the CSR to be signed
+# -CA : specifies the CA certificate to use for signing
+# -CAkey : specifies the CA private key to use for signing
+# -CAcreateserial : automoatically generates a new serial number file if one doesn't already exist
+# -out : specifies the output file for the signed certificate
+# -days : sets the certificate's validity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">openssl x509 -req -in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">60099.csr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">-CA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">/etc/kubernetes/pki/ca.crt \
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>-CAkey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> /etc/kubernetes/pki/ca.key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>-CAcreateserial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> \
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">-out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">60099.crt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">-days </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>500
+k config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> set-credentials </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">60099@internal.users </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--client-key=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">60099.key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--client-certificate=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>60099.crt
+k config set-context 60099@internal.users --cluster=kubernetes --user=60099@internal.users
+k config get-contexts
+k config use-context 60099@internal.users
+k get ns</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">openssl genrsa -out 60099.key 2048
+openssl req -new -key 60099.key -out 60099.csr
+# set Common Name (e.g. server FQDN or YOUR name) = 60099@internal.users
+# convert CSR file into base64
+cat 60099.csr | base64 -w 0
+# copy the result (which might be sticked to controlplane)
+vi csr.yaml
+apiVersion: certificates.k8s.io/v1
+kind: CertificateSigningRequest
+metadata:
+name: 60099@internal.users # add
+spec:
+groups: # add
+- system:authenticated # add
+request: &lt;paste the base64 decoded string to this field&gt;
+signerName: kubernetes.io/kube-apiserver-client
+usages:
+- client auth
+# esc and save
+k create -f csr.yaml
+k get csr
+k certificate approve 60099@internal.users
+k get csr
+# download the CRT file 
+k get csr 60099@internal.users -ojsonpath="{.status.certificate}" | base64 -d &gt; 60099.crt
+# </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>先用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> crt, key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>來</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> set-credentials
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">k config set-credentials </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">60099@internal.users </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--client-key=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>60099.key -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>-client-certificate=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>60099.crt
+k config set-context 60099@internal.users --cluster=kubernetes --user=60099@internal.users
+k config get-contexts
+k config use-context 60099@internal.users</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Apiserver should be more conform to CIS
+kube-bench run --targets master
+...
+1.2.20 Edit the API server pod specification file /etc/kubernetes/manifests/kube-apiserver.yaml
+on the master node and set the below parameter.
+--profiling=false
+...
+# or just see the one
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>kube-bench run --targets master --check 1.2.20</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">vi /etc/kubernetes/manifests/kube-apiserver.yaml
+# at apiwerver config file, add below
+...
+containers:
+- command:
+- kube-apiserver
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>- --profiling=false</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">...
+# watch crictl ps - to check the kube-apiserver comes back
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">kube-bench run --targets master --check 1.3.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+[INFO] 1 Master Node Security Configuration
+[INFO] 1.3 Controller Manager
+[FAIL] 1.3.2 Ensure that the --profiling argument is set to false (Automated)
+vi /etc/kubernetes/manifests/kube-controller-manager.yaml
+...
+containers:
+- command:
+- kube-controller-manager
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">- --profiling=false
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">...
+# watch crictl ps - to check the kube-controller-manager comes back
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>kube-bench run --targets master --check 1.1.19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+[INFO] 1 Master Node Security Configuration
+[INFO] 1.1 Master Node Configuration Files
+[FAIL] 1.1.19 Ensure that the Kubernetes PKI directory and file ownership is set to root:root (Automated)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>chgrp root /etc/kubernetes/pki/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+# chgrp [OPTION] GROUP FILE
+# </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>用來更改文件或目錄的組所有權</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> (group ownership), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>或者可以看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> == Remediations master ==
+# GROUP : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">要設置的新用戶組名稱
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># FILE : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">要更改組所有權的文件或目錄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># -R : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>遞迴地將</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> directory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>以及其所有子目錄和文件的組設置為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> root
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vi /root/image/Dockerfile
+FROM ubuntu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>:20.04 # Specific versions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+RUN apt-get update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; apt-get -y install curl # Layer caching issue w/ apt-get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">RUN apt-get -y install curl
+ENV URL https://google.com/this-will-fail?secret-token=
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>RUN rm /usr/bin/bash # Prevent bash exec - making it impossible to exec by bash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+CMD ["sh", "-c", "curl --head $URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>$TOKEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">"] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># Secret as runtime Env variable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># CMD ["sh", "-c", "curl --head $URL=2e064aad-3a90-4cde-ad86-16fad1f8943e"]
+# Test
+podman build -t app .
+podman run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>-d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>-e TOKEN=2e064aad-3a90-4cde-ad86-16fad1f8943e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> app</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">sleep 1d
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t># -e, --env : variable
+# command sleep 1d 
+# -d, --detach : run in background
+podman ps | grep app
+podman exec -it &lt;container-id&gt; bash
+podman exec -it &lt;container-id&gt; sh
+# Find out more about image layer caching at https://docs.docker.com/build/building/best-practices/#run</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># build and run
+cd /opt/ks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">docker build -t base-image .
+docker run --name c1 -d base-image </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+# show the user of processes
+docker exec c1 s
+# delete docker container
+docker rm c1 --force
+FROM alpine:3.12.3
+RUN adduser -D -g '' appuser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>USER appuser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+CMD sh -c 'sleep 1d'
+# esc and save
+docker build -t base-image .
+docker run --name c2 -d base-image 
+docker exec c2 ps</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k run crazy-pod --image=nginx@sha256:eb05700fe7baa6890b74278e39b66b2ed1326831f9ec3ed4bdc6361a4ac2f333
+k get deploy --show-labels
+k get pod -l app=crazy-deployment -oyaml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> | grep imageID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>k get deploy crazy-deployment -oyaml # get container name
+k set image deploy crazy-deployment httpd=httpd@sha256:c7b8040505e2e63eafc82d37148b687ff488bf6d25fc24c8bf01d71f5b457531
+k get pod -l app=crazy-deployment -oyaml | grep image:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">apiVersion: networking.k8s.io/v1
+kind: NetworkPolicy
+metadata:
+  name: metadata-server
+  namespace: default
+spec:
+  podSelector:
+      trust: nope
+  policyTypes:
+  - Egress
+  egress:
+  - to:
+    - ipBlock:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">        cidr: 0.0.0.0/0  # </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>允許流量到所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>，改用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> /24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> /32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">就無法匹配所有可能網址
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">        except: 
+          - 1.1.1.1/32. # /32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>代表一個單一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> IP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>地址，而不是一個範圍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>但是寫成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 1.1.1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>就不是有效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> CIDR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">格式
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">                        # /24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>代表從</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 1.1.1.0 ~ 1.1.1.255 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 256 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> IP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+# verify
+# these should work - pods without label trust=nope
+k exec trust-0 -- nc -v 1.1.1.1 53
+k exec trust-0 -- nc -v -w 1 www.google.de 80
+# these should work - selected pod, but the url is not excepted
+k exec no-trust-0 -- nc -v -w 1 www.google.de 80
+# these should not work
+k exec no-trust-0 -- nc -v 1.1.1.1 53
+# nc=netcat for testing network connection; -v for verbose, detailed info,
+# ping for testing network reachability (based on ICMP protocol) and can't test specific endpoint
+# curl for sending http(s) request, testing on application layer
+# wget for downloading file
+# nc for direct testing on TCP/UDP, followed by 53 for destination TCP/UDP port number
+# -w for timeout seconds; 為了處理可能的 DNS 解析延遲或者連線逾時 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run --name app1 -d nginx:alpine sleep infinity
+docker exec app1 ps aux
+PID USER TIME COMMAND
+1 root 0:00 sleep infinity
+6 root 0:00 ps aux
+# --pid=container:app1 to share the same PID kernel namespace
+docker run --name app2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--pid=container:app1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> -d nginx:alpine sleep infinity
+docker exec app1 ps aux
+PID USER TIME COMMAND
+1 root   0:00 sleep infinity
+11 root  0:00 sleep infinity
+16 root  0:00 ps aux
+docker exec app2 ps aux
+PID USER TIME COMMAND
+1 root   0:00 sleep infinity
+11 root  0:00 sleep infinity
+21 root  0:00 ps aux</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">podman run --name app1 -d nginx:alpine sleep infinity
+podman exec app1 ps aux
+podman run --name app2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>--pid=container:app1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> -d nginx:alpine sleep infinity
+# To see processes of both containers
+podman exec app1 ps aux
+PID USER TIME COMMAND
+1 root 0:00 sleep infinity
+3 root 0:00 sleep infinity
+4 root 0:00 ps aux
+controlplane $ podman exec app2 ps aux
+PID USER TIME COMMAND
+1 root 0:00 sleep infinity
+3 root 0:00 sleep infinity
+5 root 0:00 ps aux</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k run pod --image=nginx:alpine
+k exec -it pod -- sh
+# do nothing in the pod shell, open another terminal tab
+# at controlplane
+service falco status
+cat /var/log/syslog | grep falco | grep shell
+# change Falco output, at controlplane
+cd /etc/falco
+ls
+cat falco_rules.local.yaml 
+# looks lke everything is commented out
+cp falco_rules.yaml falco_rules.local.yaml
+vi falco_rules.local.yaml
+# find by either of below search arguments
+# /A shell was used as the entrypoint/exec 
+# /A shell was spawned in a container
+- rule: Terminal shell in container
+desc: A shell was used as the entrypoint/exec point into a container with an attached terminal.
+condition: &gt;
+...
+output: &gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>NEW SHELL!!! (user_id=%user.uid repo=%container.image.repository %user.uiduser=%user.name user_loginuid=%user.loginuid %container.info
+shell=%proc.name parent=%proc.pname cmdline=%proc.cmdline terminal=%proc.tty container_id=%container.id image=%container.image.repository)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+...
+# esc and save
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># MUST restart the falco service </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>after modification of falco rules file
+service falco restart 
+k exec -it pod -- sh
+# check the logs on controlplane
+cat /var/log/syslog | grep falco | grep shell</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vi /etc/kubernetes/policywebhook/admission_config.json
+{
+"apiVersion": "apiserver.config.k8s.io/v1",
+"kind": "AdmissionConfiguration",
+"plugins": [
+{
+"name": "ImagePolicyWebhook",
+"configuration": {
+"imagePolicy": {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">"kubeConfigFile": "/etc/kubernetes/policywebhook/kubeconf", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># config right point
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">"allowTTL": 100, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># set the allowTTL to 100
+"denyTTL": 50,
+"retryBackoff": 500,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">"defaultAllow": false </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"># all 'pod creation' be prevented if the external service is not reachable
+}
+}
+}
+]
+}
+vi /etc/kubernetes/policywebhook/kubeconf
+apiVersion: v1
+kind: Config
+...
+clusters:
+- cluster:
+certificate-authority: /etc/kubernetes/policywebhook/external-cert.pem
+server: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">https://localhost:1234 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t># where the external service will be reachable
+name: image-checker
+...
+vi /etc/kubernetes/manifests/kube-apiserver.yaml 
+...
+- --enable-admission-plugins=NodeRestriction,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>ImagePolicyWebhook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+- --admission-control-config-file=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>/etc/kubernetes/policywebhook/admission_config.json</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k -n applications get po -oyaml | grep image:
+#trivy image | grep -E 'CVE-2021-28831|CVE-2016-9841'
+trivy image nginx:1.19.1-alpine-perl | grep -E 'CVE-2021-28831|CVE-2016-9841'
+trivy image nginx:1.20.2-alpine | grep -E 'CVE-2021-28831|CVE-2016-9841'
+k get deploy web1 -n applications
+k -n applications scale deploy web1 --replicas 0
+k -n infra get po -oyaml | grep image:
+trivy image httpd:2.4.39-alpine | grep -E 'CVE-2021-28831|CVE-2016-9841'
+k -n infra get deploy
+k -n infra get deploy inf-hjk -oyaml | grep image
+k -n infra scale deploy inf-hjk --replicas 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k run pod-ro --image busybox:1.32.0 -n sun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> --dry-run=client -oyaml --command -- sh -c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> 'sleep 1d' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">&gt; cpwr.yaml
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">vi cpwr.yaml
+...
+spec:
+containers:
+- image: busybox:1.32.0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">securityContext:
+readOnlyRootFilesystem: true
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">...
+k apply -f cpwr.yaml
+k -n moon get deployment web4.0
+k -n moon describe deployment web4.0
+k -n moon get po
+k -n moon describe po web4.0-68757b5d8d-cdmsh
+k -n moon edit deployment web4.0
+...
+spec:
+containers:
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>volumeMounts:
+- mountPath: /etc
+name: data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+...
+volumes:
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>emptyDir: {}
+name: data</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi deny-out.yaml
+apiVersion: networking.k8s.io/v1
+kind: NetworkPolicy
+metadata:
+  name: deny-out
+  namespace: app
+spec:
+  podSelector: {}
+  policyTypes:
+  - Egress
+  egress:
+  - ports:
+    - port: 53
+      protocol: TCP
+    - port: 53
+      protocol: TCP
+k apply -f deny-out.yaml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2632,7 +4820,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2721,17 +4909,6 @@
       <name val="Menlo Regular"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Menlo Regular"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Menlo Regular"/>
@@ -2751,6 +4928,93 @@
       <sz val="11"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2766,7 +5030,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2815,6 +5079,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2824,7 +5099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2864,6 +5139,27 @@
     <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2872,27 +5168,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2905,6 +5180,63 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3250,16 +5582,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="208">
@@ -3270,10 +5602,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="256">
@@ -3284,10 +5616,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="80">
@@ -3298,10 +5630,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="144">
@@ -3312,10 +5644,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48">
@@ -3326,10 +5658,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="409.6">
@@ -3340,10 +5672,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="160">
@@ -3354,10 +5686,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="365">
@@ -3368,10 +5700,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="409" customHeight="1">
@@ -3382,10 +5714,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="320">
@@ -3396,10 +5728,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="48">
@@ -3410,10 +5742,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="272">
@@ -3424,10 +5756,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="160">
@@ -3438,10 +5770,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="128">
@@ -3452,10 +5784,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="144">
@@ -3466,10 +5798,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="48">
@@ -3480,31 +5812,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="8" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="408" customHeight="1">
+      <c r="A21" s="22">
+        <v>2</v>
+      </c>
+      <c r="B21" s="22">
+        <v>9</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="408" customHeight="1">
-      <c r="A21" s="15">
-        <v>2</v>
-      </c>
-      <c r="B21" s="15">
-        <v>9</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>165</v>
+      <c r="D21" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="80">
       <c r="A23" s="7">
@@ -3514,10 +5846,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="64">
@@ -3528,10 +5860,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="48">
@@ -3542,10 +5874,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="365">
@@ -3556,10 +5888,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="204">
@@ -3570,10 +5902,10 @@
         <v>5</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="320">
@@ -3584,10 +5916,10 @@
         <v>6</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="48">
@@ -3598,10 +5930,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="350">
@@ -3612,10 +5944,10 @@
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3703,13 +6035,802 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D1593A-60CA-7447-B941-D38AFCB595A5}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="117.6640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="224">
+      <c r="B5" s="15">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="64">
+      <c r="B6" s="15">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="176">
+      <c r="B7" s="15">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="32">
+      <c r="B8" s="15">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="288">
+      <c r="B9" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="395">
+      <c r="B10" s="15">
+        <v>7</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="380">
+      <c r="B11" s="15">
+        <v>8</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="409.6">
+      <c r="B12" s="15">
+        <v>9</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="408" customHeight="1">
+      <c r="B13" s="39">
+        <v>10</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="116" customHeight="1">
+      <c r="B14" s="40"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="408" customHeight="1">
+      <c r="B15" s="39">
+        <v>11</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="187" customHeight="1">
+      <c r="B16" s="40"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="2:7" ht="335">
+      <c r="B17" s="15">
+        <v>12</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="2:7" ht="256">
+      <c r="B18" s="15">
+        <v>13</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="2:7" ht="272">
+      <c r="B19" s="15">
+        <v>14</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="2:7" ht="224">
+      <c r="B20" s="15">
+        <v>15</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="2:7" ht="408" customHeight="1">
+      <c r="B21" s="37">
+        <v>16</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="2:7" ht="81" customHeight="1">
+      <c r="B22" s="38"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="2:7" ht="408" customHeight="1">
+      <c r="B23" s="39">
+        <v>17</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="2:7" ht="115" customHeight="1">
+      <c r="B24" s="40"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="2:7" ht="128">
+      <c r="B25" s="15">
+        <v>18</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="2:7" ht="192">
+      <c r="B26" s="15">
+        <v>19</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="2:7" ht="409.6">
+      <c r="B27" s="15">
+        <v>20</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="2:7" ht="224">
+      <c r="B28" s="15">
+        <v>21</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="2:7" ht="313" customHeight="1">
+      <c r="B29" s="15">
+        <v>22</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="2:7" ht="272">
+      <c r="B30" s="15">
+        <v>23</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="2:7" ht="409.6" customHeight="1">
+      <c r="B31" s="39">
+        <v>24</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="2:7" ht="74" customHeight="1">
+      <c r="B32" s="40"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="2:7" ht="232" customHeight="1">
+      <c r="B33" s="15">
+        <v>25</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="2:7" ht="99" customHeight="1">
+      <c r="B34" s="15">
+        <v>26</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="2:7" ht="351" customHeight="1">
+      <c r="B35" s="15">
+        <v>27</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="2:7" ht="136" customHeight="1">
+      <c r="B36" s="15">
+        <v>28</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="2:7" ht="176">
+      <c r="B37" s="15">
+        <v>29</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="2:7" ht="288">
+      <c r="B38" s="15">
+        <v>30</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="2:7" ht="409.5" customHeight="1">
+      <c r="B39" s="25">
+        <v>31</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="2:7" ht="204" customHeight="1">
+      <c r="B40" s="26"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="2:7" ht="48">
+      <c r="B41" s="15">
+        <v>32</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="2:7" ht="112">
+      <c r="B42" s="15">
+        <v>33</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="2:7" ht="395">
+      <c r="B43" s="15">
+        <v>34</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="2:7" ht="224">
+      <c r="B44" s="15">
+        <v>35</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="2:7" ht="335">
+      <c r="B45" s="15">
+        <v>36</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="2:7" ht="80">
+      <c r="B46" s="15">
+        <v>37</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="2:7" ht="192">
+      <c r="B47" s="15">
+        <v>38</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="2:7" ht="160">
+      <c r="B48" s="15">
+        <v>39</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="2:7" ht="112">
+      <c r="B49" s="15">
+        <v>40</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="2:7" ht="32">
+      <c r="B50" s="15">
+        <v>41</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="Link to killercoda at Youtube" xr:uid="{801F38EF-1198-7149-A133-DDF4B4E36FBD}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{1B375D11-4F36-F646-838B-AFBFC10B7FF9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787FC8CE-F471-4541-8EC6-C6DDD4D0E6CF}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
@@ -3760,10 +6881,10 @@
         <v>115</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>27</v>
@@ -4700,690 +7821,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D1593A-60CA-7447-B941-D38AFCB595A5}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:G45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D36" sqref="D34:D36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="109.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" ht="240">
-      <c r="B5" s="18">
-        <v>2</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" ht="64">
-      <c r="B6" s="18">
-        <v>3</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" ht="240">
-      <c r="B7" s="18">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" ht="48">
-      <c r="B8" s="18">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" ht="320">
-      <c r="B9" s="18">
-        <v>6</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" ht="224">
-      <c r="B10" s="18">
-        <v>7</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="18">
-        <v>8</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="18">
-        <v>9</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="18">
-        <v>10</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="18">
-        <v>11</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="18">
-        <v>12</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="18">
-        <v>13</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="18">
-        <v>14</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="18">
-        <v>15</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="18">
-        <v>16</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="18">
-        <v>17</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="18">
-        <v>18</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="18">
-        <v>19</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="18">
-        <v>20</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="18">
-        <v>21</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="18">
-        <v>22</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="18">
-        <v>23</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="18">
-        <v>24</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="18">
-        <v>25</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="18">
-        <v>26</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="18">
-        <v>27</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="18">
-        <v>28</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="2:7" ht="170">
-      <c r="B32" s="18">
-        <v>29</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="2:7" ht="288">
-      <c r="B33" s="18">
-        <v>30</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="2:7" ht="409.6" customHeight="1">
-      <c r="B34" s="25">
-        <v>31</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="2:7" ht="74" customHeight="1">
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="18">
-        <v>32</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="2:7" ht="112">
-      <c r="B37" s="18">
-        <v>33</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="2:7" ht="409.6">
-      <c r="B38" s="18">
-        <v>34</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="2:7" ht="256">
-      <c r="B39" s="18">
-        <v>35</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="2:7" ht="372">
-      <c r="B40" s="18">
-        <v>36</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="2:7" ht="96">
-      <c r="B41" s="18">
-        <v>37</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="2:7" ht="208">
-      <c r="B42" s="18">
-        <v>38</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="2:7" ht="160">
-      <c r="B43" s="18">
-        <v>39</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="2:7" ht="112">
-      <c r="B44" s="18">
-        <v>40</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="2:7" ht="32">
-      <c r="B45" s="18">
-        <v>41</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="Link to killercoda at Youtube" xr:uid="{801F38EF-1198-7149-A133-DDF4B4E36FBD}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{1B375D11-4F36-F646-838B-AFBFC10B7FF9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
